--- a/statistics/HistoricalDistanceData/historical_distance/Q4781931-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q4781931-en.xlsx
@@ -34,18 +34,18 @@
     <t>IRS Gives April 16 Storm Victims Additional 48 Hours to File Income Tax Returns</t>
   </si>
   <si>
+    <t>Tuckahoe Train Station The Flood of Apr 16 2007</t>
+  </si>
+  <si>
+    <t>Patriot's Day Storm Packs a 156-mph Punch</t>
+  </si>
+  <si>
     <t>NOAA's National Weather Service</t>
   </si>
   <si>
-    <t>Tuckahoe Train Station The Flood of Apr 16 2007</t>
-  </si>
-  <si>
     <t>More than 100,000 without power as storm hits Ontario, Quebec</t>
   </si>
   <si>
-    <t>Patriot's Day Storm Packs a 156-mph Punch</t>
-  </si>
-  <si>
     <t>2007-04-18T00:00:00UTC</t>
   </si>
   <si>
@@ -61,16 +61,16 @@
     <t>https://web.archive.org/web/20070419222755/https://www.irs.gov/newsroom/article/0,,id=169523,00.html</t>
   </si>
   <si>
+    <t>https://www.flickr.com/photos/kc2gog/sets/72157604303045368/with/2372814086/</t>
+  </si>
+  <si>
+    <t>http://www.mountwashington.org/news/release.php?id=17</t>
+  </si>
+  <si>
     <t>http://www.erh.noaa.gov/er/bgm/WeatherEvents/Snow/april162007/april162007.shtml</t>
   </si>
   <si>
-    <t>https://www.flickr.com/photos/kc2gog/sets/72157604303045368/with/2372814086/</t>
-  </si>
-  <si>
     <t>http://www.cbc.ca/canada/story/2007/04/16/spring-storm-mon.html</t>
-  </si>
-  <si>
-    <t>http://www.mountwashington.org/news/release.php?id=17</t>
   </si>
 </sst>
 </file>
